--- a/examples/Aspiration/data/excel_source/trainer_scenarios2.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$257</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,6 +125,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -141,30 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,8 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +175,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,18 +224,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,11 +247,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +269,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,25 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,49 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,48 +443,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -512,37 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,15 +523,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,23 +545,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,126 +586,141 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,35 +729,35 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -796,9 +765,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,14 +1084,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R240"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1254,7 +1220,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -1299,7 +1265,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1310,7 +1276,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1355,7 +1321,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1366,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1411,7 +1377,7 @@
         <v>0.95</v>
       </c>
       <c r="R5" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1422,7 +1388,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="4">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1467,7 +1433,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1478,7 +1444,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1523,7 +1489,7 @@
         <v>0.95</v>
       </c>
       <c r="R7" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1534,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="4">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1579,7 +1545,7 @@
         <v>0.95</v>
       </c>
       <c r="R8" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1590,7 +1556,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1635,7 +1601,7 @@
         <v>0.95</v>
       </c>
       <c r="R9" s="6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1646,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="4">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1691,7 +1657,7 @@
         <v>0.95</v>
       </c>
       <c r="R10" s="6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1702,7 +1668,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="4">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1747,7 +1713,7 @@
         <v>0.95</v>
       </c>
       <c r="R11" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1785,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
@@ -1803,7 +1769,7 @@
         <v>0.95</v>
       </c>
       <c r="R12" s="6">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1841,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
@@ -1859,8 +1825,7 @@
         <v>0.95</v>
       </c>
       <c r="R13" s="6">
-        <f>R12+2</f>
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1898,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
@@ -1916,8 +1881,7 @@
         <v>0.95</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ref="R14:R21" si="0">R13+2</f>
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1955,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M15" s="4">
         <v>2</v>
@@ -1973,8 +1937,7 @@
         <v>0.95</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2030,8 +1993,7 @@
         <v>0.95</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2069,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="M17" s="4">
         <v>2</v>
@@ -2087,8 +2049,7 @@
         <v>0.95</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2126,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4">
         <v>2</v>
@@ -2144,8 +2105,7 @@
         <v>0.95</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2183,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M19" s="4">
         <v>2</v>
@@ -2201,8 +2161,7 @@
         <v>0.95</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2240,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M20" s="4">
         <v>2</v>
@@ -2258,8 +2217,7 @@
         <v>0.95</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2297,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
@@ -2315,209 +2273,568 @@
         <v>0.95</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="6"/>
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100</v>
+      </c>
+      <c r="C22" s="4">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="6"/>
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R23" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="6"/>
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R24" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="6"/>
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100</v>
+      </c>
+      <c r="C25" s="4">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R25" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="6"/>
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R26" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="6"/>
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4">
+        <v>50</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R27" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="6"/>
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R28" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="6"/>
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R29" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="6"/>
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R30" s="6">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="6"/>
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R31" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3"/>
@@ -6680,27 +6997,367 @@
       <c r="R239" s="6"/>
     </row>
     <row r="240" spans="1:18">
-      <c r="A240" s="7"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8"/>
-      <c r="J240" s="8"/>
-      <c r="K240" s="8"/>
-      <c r="L240" s="8"/>
-      <c r="M240" s="8"/>
-      <c r="N240" s="8"/>
-      <c r="O240" s="8"/>
-      <c r="P240" s="8"/>
-      <c r="Q240" s="8"/>
-      <c r="R240" s="9"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="4"/>
+      <c r="O240" s="4"/>
+      <c r="P240" s="4"/>
+      <c r="Q240" s="4"/>
+      <c r="R240" s="6"/>
+    </row>
+    <row r="241" spans="1:18">
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="4"/>
+      <c r="O241" s="4"/>
+      <c r="P241" s="4"/>
+      <c r="Q241" s="4"/>
+      <c r="R241" s="6"/>
+    </row>
+    <row r="242" spans="1:18">
+      <c r="A242" s="3"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="6"/>
+    </row>
+    <row r="243" spans="1:18">
+      <c r="A243" s="3"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
+      <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="6"/>
+    </row>
+    <row r="244" spans="1:18">
+      <c r="A244" s="3"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="6"/>
+    </row>
+    <row r="245" spans="1:18">
+      <c r="A245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
+      <c r="O245" s="4"/>
+      <c r="P245" s="4"/>
+      <c r="Q245" s="4"/>
+      <c r="R245" s="6"/>
+    </row>
+    <row r="246" spans="1:18">
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="4"/>
+      <c r="O246" s="4"/>
+      <c r="P246" s="4"/>
+      <c r="Q246" s="4"/>
+      <c r="R246" s="6"/>
+    </row>
+    <row r="247" spans="1:18">
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="4"/>
+      <c r="O247" s="4"/>
+      <c r="P247" s="4"/>
+      <c r="Q247" s="4"/>
+      <c r="R247" s="6"/>
+    </row>
+    <row r="248" spans="1:18">
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4"/>
+      <c r="N248" s="4"/>
+      <c r="O248" s="4"/>
+      <c r="P248" s="4"/>
+      <c r="Q248" s="4"/>
+      <c r="R248" s="6"/>
+    </row>
+    <row r="249" spans="1:18">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="4"/>
+      <c r="O249" s="4"/>
+      <c r="P249" s="4"/>
+      <c r="Q249" s="4"/>
+      <c r="R249" s="6"/>
+    </row>
+    <row r="250" spans="1:18">
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="4"/>
+      <c r="N250" s="4"/>
+      <c r="O250" s="4"/>
+      <c r="P250" s="4"/>
+      <c r="Q250" s="4"/>
+      <c r="R250" s="6"/>
+    </row>
+    <row r="251" spans="1:18">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="4"/>
+      <c r="O251" s="4"/>
+      <c r="P251" s="4"/>
+      <c r="Q251" s="4"/>
+      <c r="R251" s="6"/>
+    </row>
+    <row r="252" spans="1:18">
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="4"/>
+      <c r="O252" s="4"/>
+      <c r="P252" s="4"/>
+      <c r="Q252" s="4"/>
+      <c r="R252" s="6"/>
+    </row>
+    <row r="253" spans="1:18">
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="4"/>
+      <c r="O253" s="4"/>
+      <c r="P253" s="4"/>
+      <c r="Q253" s="4"/>
+      <c r="R253" s="6"/>
+    </row>
+    <row r="254" spans="1:18">
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="4"/>
+      <c r="N254" s="4"/>
+      <c r="O254" s="4"/>
+      <c r="P254" s="4"/>
+      <c r="Q254" s="4"/>
+      <c r="R254" s="6"/>
+    </row>
+    <row r="255" spans="1:18">
+      <c r="A255" s="3"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="4"/>
+      <c r="O255" s="4"/>
+      <c r="P255" s="4"/>
+      <c r="Q255" s="4"/>
+      <c r="R255" s="6"/>
+    </row>
+    <row r="256" spans="1:18">
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+      <c r="I256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="4"/>
+      <c r="N256" s="4"/>
+      <c r="O256" s="4"/>
+      <c r="P256" s="4"/>
+      <c r="Q256" s="4"/>
+      <c r="R256" s="6"/>
+    </row>
+    <row r="257" spans="1:18">
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="4"/>
+      <c r="O257" s="4"/>
+      <c r="P257" s="4"/>
+      <c r="Q257" s="4"/>
+      <c r="R257" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R240"/>
+  <autoFilter ref="A1:R257"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
